--- a/미경이_생활.xlsx
+++ b/미경이_생활.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbg61\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F6AEB3-7157-4D37-B26A-51E980D3C6B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6ED463-0064-487C-9EF5-9318CAC74FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="병원지출_현재" sheetId="6" r:id="rId1"/>
     <sheet name="병원지출_예상" sheetId="11" r:id="rId2"/>
-    <sheet name="치료 포기 24시간 포기" sheetId="8" r:id="rId3"/>
-    <sheet name="기타 " sheetId="10" r:id="rId4"/>
+    <sheet name="기타 " sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
   <si>
     <t>임차료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건강보험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공과금 상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인증서,통장,신분증,도장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기초생활 의료수급권자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가정방문간호사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,10 +346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기초생활수급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sbg613 / !solocher83!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,11 +358,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주말 사람이 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전기세+가스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강보험 + 국민연금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연290만원기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초생활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기초생활 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,10 +624,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,14 +639,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1002,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:J22"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1021,75 +1020,75 @@
     <col min="10" max="10" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="29" t="s">
+      <c r="H4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>12</v>
       </c>
       <c r="D5" s="4">
@@ -1102,7 +1101,7 @@
       <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <v>12</v>
       </c>
       <c r="I5" s="4">
@@ -1113,11 +1112,11 @@
         <v>3840000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>36</v>
       </c>
       <c r="D6" s="4">
@@ -1130,22 +1129,25 @@
       <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2000000</v>
+        <v>4300000</v>
       </c>
       <c r="J6" s="7">
         <f xml:space="preserve"> H6 * I6</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4300000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>52</v>
       </c>
       <c r="D7" s="7">
@@ -1156,34 +1158,34 @@
         <v>6240000</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>18</v>
       </c>
       <c r="D8" s="7">
         <v>400000</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> C8 * D8</f>
         <v>7200000</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <v>12</v>
       </c>
       <c r="D9" s="4">
@@ -1194,15 +1196,15 @@
         <v>4368000</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>12</v>
       </c>
       <c r="D10" s="4">
@@ -1213,15 +1215,15 @@
         <v>3336000</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="26">
+        <v>72</v>
+      </c>
+      <c r="C11" s="24">
         <v>52</v>
       </c>
       <c r="D11" s="4">
@@ -1232,31 +1234,31 @@
         <v>1040000</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2">
         <f>SUM(J5:J9)</f>
-        <v>5840000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>8140000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
-      <c r="C12" s="16"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <f>SUM(E5:E11)</f>
         <v>29716400</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="28">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="26">
         <v>12</v>
       </c>
       <c r="D13" s="9">
@@ -1267,106 +1269,104 @@
         <f xml:space="preserve"> D13 / C13</f>
         <v>2476366.6666666665</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="28">
+      <c r="G13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="26">
         <v>12</v>
       </c>
       <c r="I13" s="9">
         <f xml:space="preserve"> J11</f>
-        <v>5840000</v>
+        <v>8140000</v>
       </c>
       <c r="J13" s="8">
         <f xml:space="preserve"> I13 / H13</f>
-        <v>486666.66666666669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="40" t="s">
+        <v>678333.33333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D16" s="41"/>
-      <c r="E16" s="15">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="39"/>
+      <c r="E16" s="14">
         <f xml:space="preserve"> E13</f>
         <v>2476366.6666666665</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <f xml:space="preserve"> J13</f>
-        <v>486666.66666666669</v>
-      </c>
-      <c r="G16" s="15">
+        <v>678333.33333333337</v>
+      </c>
+      <c r="G16" s="14">
         <f xml:space="preserve"> E16 - F16</f>
-        <v>1989699.9999999998</v>
-      </c>
-      <c r="H16" s="15">
-        <v>200000</v>
-      </c>
-      <c r="I16" s="15">
+        <v>1798033.333333333</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14">
         <f>G16+H16</f>
-        <v>2189700</v>
+        <v>1798033.333333333</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>85</v>
+      <c r="B18" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="D18" s="2">
         <v>130000</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="42"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2">
         <v>37000</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="42"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="2">
         <v>11000</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="42"/>
-      <c r="C21" s="30" t="s">
-        <v>20</v>
+      <c r="B21" s="40"/>
+      <c r="C21" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="D21" s="2">
         <v>100000</v>
       </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="2:5" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:E3"/>
@@ -1383,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12EA887-76C8-4840-8297-50BC203250AA}">
-  <dimension ref="A2:K24"/>
+  <dimension ref="A2:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1401,73 +1401,73 @@
     <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="G3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="G3" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="29" t="s">
+      <c r="H4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>12</v>
       </c>
       <c r="D5" s="4">
@@ -1480,7 +1480,7 @@
       <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <v>12</v>
       </c>
       <c r="I5" s="4">
@@ -1491,11 +1491,11 @@
         <v>3840000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>36</v>
       </c>
       <c r="D6" s="4">
@@ -1506,24 +1506,24 @@
         <v>5400000</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="27">
+        <v>21</v>
+      </c>
+      <c r="H6" s="25">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2000000</v>
+        <v>4300000</v>
       </c>
       <c r="J6" s="7">
         <f xml:space="preserve"> H6 * I6</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>52</v>
       </c>
       <c r="D7" s="7">
@@ -1534,27 +1534,24 @@
         <v>6240000</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="32">
-        <v>12</v>
-      </c>
-      <c r="I7" s="33">
-        <v>910000</v>
-      </c>
-      <c r="J7" s="33">
+        <v>83</v>
+      </c>
+      <c r="H7" s="30">
+        <v>12</v>
+      </c>
+      <c r="I7" s="31">
+        <v>800000</v>
+      </c>
+      <c r="J7" s="31">
         <f xml:space="preserve"> H7 * I7</f>
-        <v>10920000</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>18</v>
       </c>
       <c r="D8" s="7">
@@ -1565,15 +1562,15 @@
         <v>7200000</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <v>12</v>
       </c>
       <c r="D9" s="4">
@@ -1583,59 +1580,59 @@
         <f t="shared" si="0"/>
         <v>4368000</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>12</v>
       </c>
       <c r="D10" s="4">
-        <v>178000</v>
+        <v>278000</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>2136000</v>
-      </c>
-      <c r="F10" s="17"/>
+        <v>3336000</v>
+      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="30">
         <v>52</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="31">
         <v>200000</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="32">
         <f t="shared" si="0"/>
         <v>10400000</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2">
         <f>SUM(J5:J9)</f>
-        <v>16760000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17740000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="26">
+        <v>72</v>
+      </c>
+      <c r="C12" s="24">
         <v>52</v>
       </c>
       <c r="D12" s="4">
@@ -1646,150 +1643,535 @@
         <v>1040000</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
         <f>SUM(E5:E12)</f>
-        <v>38916400</v>
+        <v>40116400</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="28">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="26">
         <v>12</v>
       </c>
       <c r="D14" s="9">
         <f xml:space="preserve"> E13</f>
-        <v>38916400</v>
+        <v>40116400</v>
       </c>
       <c r="E14" s="9">
         <f xml:space="preserve"> D14 / C14</f>
-        <v>3243033.3333333335</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="28">
+        <v>3343033.3333333335</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="26">
         <v>12</v>
       </c>
       <c r="I14" s="9">
         <f xml:space="preserve"> J11</f>
-        <v>16760000</v>
+        <v>17740000</v>
       </c>
       <c r="J14" s="8">
         <f xml:space="preserve"> I14 / H14</f>
-        <v>1396666.6666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D16" s="40" t="s">
+        <v>1478333.3333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="41"/>
-      <c r="E17" s="15">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D17" s="39"/>
+      <c r="E17" s="14">
         <f xml:space="preserve"> E14</f>
-        <v>3243033.3333333335</v>
-      </c>
-      <c r="F17" s="15">
+        <v>3343033.3333333335</v>
+      </c>
+      <c r="F17" s="14">
         <f xml:space="preserve"> J14</f>
-        <v>1396666.6666666667</v>
-      </c>
-      <c r="G17" s="15">
+        <v>1478333.3333333333</v>
+      </c>
+      <c r="G17" s="14">
         <f xml:space="preserve"> E17 - F17</f>
-        <v>1846366.6666666667</v>
-      </c>
-      <c r="H17" s="15">
-        <v>200000</v>
-      </c>
-      <c r="I17" s="15">
+        <v>1864700.0000000002</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14">
         <f>G17+H17</f>
-        <v>2046366.6666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>85</v>
+        <v>1864700.0000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="D19" s="2">
         <v>130000</v>
       </c>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="42"/>
-      <c r="C20" s="30" t="s">
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="40"/>
+      <c r="C20" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2">
         <v>37000</v>
       </c>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="42"/>
-      <c r="C21" s="30" t="s">
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="40"/>
+      <c r="C21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="2">
         <v>11000</v>
       </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="40"/>
+      <c r="C22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="G28" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="24">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4">
+        <v>177700</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" ref="E30:E37" si="1" xml:space="preserve"> C30 * D30</f>
+        <v>2132400</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="24">
+        <v>12</v>
+      </c>
+      <c r="I30" s="4">
+        <v>320000</v>
+      </c>
+      <c r="J30" s="4">
+        <f xml:space="preserve"> H30 * I30</f>
+        <v>3840000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="24">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4">
+        <v>150000</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="1"/>
+        <v>3600000</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="25">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1900000</v>
+      </c>
+      <c r="J31" s="7">
+        <f xml:space="preserve"> H31 * I31</f>
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="25">
+        <v>52</v>
+      </c>
+      <c r="D32" s="7">
+        <v>120000</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="1"/>
+        <v>6240000</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="30">
+        <v>12</v>
+      </c>
+      <c r="I32" s="31">
+        <v>800000</v>
+      </c>
+      <c r="J32" s="31">
+        <f xml:space="preserve"> H32 * I32</f>
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="25">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7">
+        <v>400000</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="1"/>
+        <v>4800000</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="24">
+        <v>12</v>
+      </c>
+      <c r="D34" s="4">
+        <v>364000</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
+        <v>4368000</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="24">
+        <v>12</v>
+      </c>
+      <c r="D35" s="4">
+        <v>278000</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="1"/>
+        <v>3336000</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="30">
+        <v>52</v>
+      </c>
+      <c r="D36" s="31">
+        <v>200000</v>
+      </c>
+      <c r="E36" s="32">
+        <f t="shared" si="1"/>
+        <v>10400000</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="2">
+        <f>SUM(J30:J34)</f>
+        <v>15340000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="24">
+        <v>52</v>
+      </c>
+      <c r="D37" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="1"/>
+        <v>1040000</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <f>SUM(E30:E37)</f>
+        <v>35916400</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="26">
+        <v>12</v>
+      </c>
+      <c r="D39" s="9">
+        <f xml:space="preserve"> E38</f>
+        <v>35916400</v>
+      </c>
+      <c r="E39" s="9">
+        <f xml:space="preserve"> D39 / C39</f>
+        <v>2993033.3333333335</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="26">
+        <v>12</v>
+      </c>
+      <c r="I39" s="9">
+        <f xml:space="preserve"> J36</f>
+        <v>15340000</v>
+      </c>
+      <c r="J39" s="8">
+        <f xml:space="preserve"> I39 / H39</f>
+        <v>1278333.3333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="39"/>
+      <c r="E42" s="14">
+        <f xml:space="preserve"> E39</f>
+        <v>2993033.3333333335</v>
+      </c>
+      <c r="F42" s="14">
+        <f xml:space="preserve"> J39</f>
+        <v>1278333.3333333333</v>
+      </c>
+      <c r="G42" s="14">
+        <f xml:space="preserve"> E42 - F42</f>
+        <v>1714700.0000000002</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14">
+        <f>G42+H42</f>
+        <v>1714700.0000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="2">
+        <v>130000</v>
+      </c>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="40"/>
+      <c r="C45" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2">
+        <v>37000</v>
+      </c>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="40"/>
+      <c r="C46" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="40"/>
+      <c r="C47" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B19:B21"/>
+  <mergeCells count="10">
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B44:B47"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1798,340 +2180,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB26ECB1-36A0-438C-A5BA-90FF68A817BA}">
-  <dimension ref="A2:J24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="26">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3">
-        <v>177700</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" ref="E5:E8" si="0" xml:space="preserve"> C5 * D5</f>
-        <v>2132400</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="26">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4">
-        <v>320000</v>
-      </c>
-      <c r="J5" s="4">
-        <f xml:space="preserve"> H5 * I5</f>
-        <v>3840000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="27">
-        <v>52</v>
-      </c>
-      <c r="D6" s="7">
-        <v>120000</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>6240000</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="26">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4">
-        <v>910000</v>
-      </c>
-      <c r="J6" s="4">
-        <f xml:space="preserve"> H6 * I6</f>
-        <v>10920000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4">
-        <v>364000</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>4368000</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="26">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4">
-        <v>178000</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>2136000</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <f>SUM(E5:E8)</f>
-        <v>14876400</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2">
-        <f>SUM(J5:J8)</f>
-        <v>14760000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="28">
-        <v>12</v>
-      </c>
-      <c r="D10" s="9">
-        <f xml:space="preserve"> E9</f>
-        <v>14876400</v>
-      </c>
-      <c r="E10" s="9">
-        <f xml:space="preserve"> D10 / C10</f>
-        <v>1239700</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="28">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9">
-        <f xml:space="preserve"> J9</f>
-        <v>14760000</v>
-      </c>
-      <c r="J10" s="8">
-        <f xml:space="preserve"> I10 / H10</f>
-        <v>1230000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D13" s="41"/>
-      <c r="E13" s="15">
-        <f xml:space="preserve"> E10</f>
-        <v>1239700</v>
-      </c>
-      <c r="F13" s="15">
-        <f xml:space="preserve"> J10</f>
-        <v>1230000</v>
-      </c>
-      <c r="G13" s="15">
-        <f xml:space="preserve"> E13 - F13</f>
-        <v>9700</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <f>G13+H13</f>
-        <v>9700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="2">
-        <v>130000</v>
-      </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="42"/>
-      <c r="C15" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2">
-        <v>37000</v>
-      </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="42"/>
-      <c r="C16" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B14:B16"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E25" r:id="rId1" display="https://www.socialservice.or.kr:444/" xr:uid="{AF8631C6-675F-442C-997F-F67E4532F5B7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C8945E-A1EE-4854-BF9F-21BC9EAE5B20}">
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2144,258 +2197,258 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="18" t="s">
+      <c r="B2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="29"/>
+      <c r="C3" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="33" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="35" t="s">
-        <v>47</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="C5" s="43" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="35" t="s">
-        <v>60</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="35" t="s">
-        <v>62</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="33" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="31"/>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
-        <v>82</v>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="33">
+        <v>101</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
-      <c r="C10" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="35">
-        <v>101</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="43" t="s">
+      <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="F12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="31"/>
-      <c r="C12" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="F12" s="35" t="s">
-        <v>37</v>
-      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="33" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="35" t="s">
-        <v>53</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
-      <c r="C14" s="43" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="33" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="35" t="s">
-        <v>49</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="43" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="35" t="s">
-        <v>51</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="33" t="s">
         <v>57</v>
-      </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="35" t="s">
-        <v>58</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="33" t="s">
         <v>43</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="35" t="s">
-        <v>44</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="43" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="33" t="s">
         <v>55</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="35" t="s">
-        <v>56</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="20" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/미경이_생활.xlsx
+++ b/미경이_생활.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbg61\Desktop\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6ED463-0064-487C-9EF5-9318CAC74FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB864C9-B81B-4924-96B8-557BFB5E14FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,22 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
   <si>
     <t>임차료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +365,10 @@
   </si>
   <si>
     <t xml:space="preserve">기초생활 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초 생활 연금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +998,7 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1117,14 +1111,14 @@
         <v>3</v>
       </c>
       <c r="C6" s="24">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>150000</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>5400000</v>
+        <v>3600000</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -1133,11 +1127,11 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>4300000</v>
+        <v>2940000</v>
       </c>
       <c r="J6" s="7">
         <f xml:space="preserve"> H6 * I6</f>
-        <v>4300000</v>
+        <v>2940000</v>
       </c>
       <c r="K6" t="s">
         <v>82</v>
@@ -1151,30 +1145,39 @@
         <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>6240000</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+        <v>5200000</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="24">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4">
+        <v>800000</v>
+      </c>
+      <c r="J7" s="4">
+        <f xml:space="preserve"> H7 * I7</f>
+        <v>9600000</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="25">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
         <v>400000</v>
       </c>
       <c r="E8" s="7">
         <f xml:space="preserve"> C8 * D8</f>
-        <v>7200000</v>
+        <v>4800000</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="15"/>
@@ -1238,7 +1241,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="2">
         <f>SUM(J5:J9)</f>
-        <v>8140000</v>
+        <v>16380000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1247,7 +1250,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <f>SUM(E5:E11)</f>
-        <v>29716400</v>
+        <v>24476400</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="15"/>
@@ -1263,11 +1266,11 @@
       </c>
       <c r="D13" s="9">
         <f xml:space="preserve"> E12</f>
-        <v>29716400</v>
+        <v>24476400</v>
       </c>
       <c r="E13" s="9">
         <f xml:space="preserve"> D13 / C13</f>
-        <v>2476366.6666666665</v>
+        <v>2039700</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>71</v>
@@ -1277,11 +1280,11 @@
       </c>
       <c r="I13" s="9">
         <f xml:space="preserve"> J11</f>
-        <v>8140000</v>
-      </c>
-      <c r="J13" s="8">
+        <v>16380000</v>
+      </c>
+      <c r="J13" s="9">
         <f xml:space="preserve"> I13 / H13</f>
-        <v>678333.33333333337</v>
+        <v>1365000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1308,20 +1311,20 @@
       <c r="D16" s="39"/>
       <c r="E16" s="14">
         <f xml:space="preserve"> E13</f>
-        <v>2476366.6666666665</v>
+        <v>2039700</v>
       </c>
       <c r="F16" s="14">
         <f xml:space="preserve"> J13</f>
-        <v>678333.33333333337</v>
+        <v>1365000</v>
       </c>
       <c r="G16" s="14">
         <f xml:space="preserve"> E16 - F16</f>
-        <v>1798033.333333333</v>
+        <v>674700</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14">
         <f>G16+H16</f>
-        <v>1798033.333333333</v>
+        <v>674700</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -1386,7 +1389,7 @@
   <dimension ref="A2:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1512,11 +1515,11 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>4300000</v>
+        <v>2940000</v>
       </c>
       <c r="J6" s="7">
         <f xml:space="preserve"> H6 * I6</f>
-        <v>4300000</v>
+        <v>2940000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1527,11 +1530,11 @@
         <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>6240000</v>
+        <v>5200000</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>83</v>
@@ -1625,7 +1628,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="2">
         <f>SUM(J5:J9)</f>
-        <v>17740000</v>
+        <v>16380000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1653,7 +1656,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2">
         <f>SUM(E5:E12)</f>
-        <v>40116400</v>
+        <v>39076400</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="15"/>
@@ -1669,11 +1672,11 @@
       </c>
       <c r="D14" s="9">
         <f xml:space="preserve"> E13</f>
-        <v>40116400</v>
+        <v>39076400</v>
       </c>
       <c r="E14" s="9">
         <f xml:space="preserve"> D14 / C14</f>
-        <v>3343033.3333333335</v>
+        <v>3256366.6666666665</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>71</v>
@@ -1683,11 +1686,11 @@
       </c>
       <c r="I14" s="9">
         <f xml:space="preserve"> J11</f>
-        <v>17740000</v>
+        <v>16380000</v>
       </c>
       <c r="J14" s="8">
         <f xml:space="preserve"> I14 / H14</f>
-        <v>1478333.3333333333</v>
+        <v>1365000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1719,20 +1722,20 @@
       <c r="D17" s="39"/>
       <c r="E17" s="14">
         <f xml:space="preserve"> E14</f>
-        <v>3343033.3333333335</v>
+        <v>3256366.6666666665</v>
       </c>
       <c r="F17" s="14">
         <f xml:space="preserve"> J14</f>
-        <v>1478333.3333333333</v>
+        <v>1365000</v>
       </c>
       <c r="G17" s="14">
         <f xml:space="preserve"> E17 - F17</f>
-        <v>1864700.0000000002</v>
+        <v>1891366.6666666665</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14">
         <f>G17+H17</f>
-        <v>1864700.0000000002</v>
+        <v>1891366.6666666665</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2162,16 +2165,16 @@
     <row r="48" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2432,23 +2435,23 @@
     <row r="20" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/미경이_생활.xlsx
+++ b/미경이_생활.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781B7060-02F4-4321-84CB-351E1B471886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC99440A-C6AD-4F5A-A333-BBDAD15AF4A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,24 +697,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,15 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12EA887-76C8-4840-8297-50BC203250AA}">
   <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,34 +1040,34 @@
       <c r="A2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="G3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
@@ -1119,11 +1119,11 @@
         <v>12</v>
       </c>
       <c r="I5" s="4">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="J5" s="4">
         <f xml:space="preserve"> H5 * I5</f>
-        <v>3840000</v>
+        <v>4200000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1179,11 +1179,11 @@
         <v>12</v>
       </c>
       <c r="I7" s="29">
-        <v>800000</v>
+        <v>480000</v>
       </c>
       <c r="J7" s="29">
         <f xml:space="preserve"> H7 * I7</f>
-        <v>9600000</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1264,7 +1264,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="2">
         <f>SUM(J5:J9)</f>
-        <v>16780000</v>
+        <v>13300000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="I14" s="9">
         <f xml:space="preserve"> J11</f>
-        <v>16780000</v>
+        <v>13300000</v>
       </c>
       <c r="J14" s="8">
         <f xml:space="preserve"> I14 / H14</f>
-        <v>1398333.3333333333</v>
+        <v>1108333.3333333333</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -1355,27 +1355,27 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="37"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="12">
         <f xml:space="preserve"> E14</f>
         <v>2993033.3333333335</v>
       </c>
       <c r="F17" s="12">
         <f xml:space="preserve"> J14</f>
-        <v>1398333.3333333333</v>
+        <v>1108333.3333333333</v>
       </c>
       <c r="G17" s="12">
         <f xml:space="preserve"> E17 - F17</f>
-        <v>1594700.0000000002</v>
+        <v>1884700.0000000002</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12">
         <f>G17+H17</f>
-        <v>1594700.0000000002</v>
+        <v>1884700.0000000002</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -1387,7 +1387,7 @@
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="26" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="38"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="26" t="s">
         <v>17</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="38"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="26" t="s">
         <v>77</v>
       </c>
@@ -1418,95 +1418,95 @@
     </row>
     <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="42">
+      <c r="A25" s="32">
         <v>1</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="42">
+      <c r="A29" s="32">
         <v>2</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="44" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="34" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="17"/>
-      <c r="E32" s="42"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="42">
+      <c r="A33" s="32">
         <v>2</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1543,10 +1543,10 @@
       <c r="B2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="15" t="s">
         <v>41</v>
       </c>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="15" t="s">
         <v>62</v>
       </c>
@@ -1577,10 +1577,10 @@
       <c r="B4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="31" t="s">
         <v>43</v>
       </c>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="27"/>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="31" t="s">
         <v>56</v>
       </c>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="27"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="31" t="s">
         <v>58</v>
       </c>
@@ -1617,10 +1617,10 @@
       <c r="B7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="31" t="s">
         <v>35</v>
       </c>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="31" t="s">
         <v>38</v>
       </c>
@@ -1645,10 +1645,10 @@
       <c r="B9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="31" t="s">
         <v>36</v>
       </c>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="27"/>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="31">
         <v>101</v>
       </c>
@@ -1671,10 +1671,10 @@
       <c r="B11" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="16" t="s">
         <v>30</v>
       </c>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="27"/>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="42"/>
       <c r="F12" s="31" t="s">
         <v>33</v>
       </c>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="31" t="s">
         <v>49</v>
       </c>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="27"/>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="31" t="s">
         <v>45</v>
       </c>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="27"/>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="31" t="s">
         <v>47</v>
       </c>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="27"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="31" t="s">
         <v>54</v>
       </c>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="27"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="31" t="s">
         <v>40</v>
       </c>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="31" t="s">
         <v>52</v>
       </c>
@@ -1775,23 +1775,23 @@
     <row r="20" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
